--- a/outputs-HGR-r202/test-g__CAG-791_split_pruned.xlsx
+++ b/outputs-HGR-r202/test-g__CAG-791_split_pruned.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="8">
   <si>
     <t>Row</t>
   </si>
@@ -58,7 +58,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -68,14 +68,18 @@
     </border>
     <border/>
     <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -94,18 +98,18 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
       <c r="B2">
@@ -116,7 +120,7 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B3">
@@ -127,7 +131,7 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
       <c r="B4">
@@ -138,8 +142,8 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="s">
-        <v>4</v>
+      <c r="A5" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="B5">
         <v>1</v>

--- a/outputs-HGR-r202/test-g__CAG-791_split_pruned.xlsx
+++ b/outputs-HGR-r202/test-g__CAG-791_split_pruned.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="8">
   <si>
     <t>Row</t>
   </si>
@@ -58,7 +58,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -70,16 +70,24 @@
     <border/>
     <border/>
     <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -98,55 +106,55 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="7" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="7" t="s">
         <v>1</v>
       </c>
       <c r="B2">
-        <v>1</v>
+        <v>-16.048626084889285</v>
       </c>
       <c r="C2">
         <v>1</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="7" t="s">
         <v>2</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>-15.765438256654512</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="7" t="s">
         <v>3</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>-17.19533930795949</v>
       </c>
       <c r="C4">
         <v>1</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="7" t="s">
         <v>5</v>
       </c>
       <c r="B5">
-        <v>1</v>
+        <v>-17.00412810770387</v>
       </c>
       <c r="C5">
         <v>1</v>

--- a/outputs-HGR-r202/test-g__CAG-791_split_pruned.xlsx
+++ b/outputs-HGR-r202/test-g__CAG-791_split_pruned.xlsx
@@ -14,24 +14,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>Row</t>
   </si>
   <si>
-    <t>even_MAG-GUT57658.fa</t>
-  </si>
-  <si>
     <t>even_MAG-GUT57690.fa</t>
-  </si>
-  <si>
-    <t>even_MAG-GUT58392.fa</t>
-  </si>
-  <si>
-    <t>even_MAG-GUT62206.fa</t>
-  </si>
-  <si>
-    <t>even_MAG-GUT62429.fa</t>
   </si>
   <si>
     <t>1-s__CAG-791 sp000431495</t>
@@ -58,7 +46,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -68,26 +56,14 @@
     </border>
     <border/>
     <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -97,77 +73,33 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C2"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="22.42578125" customWidth="true"/>
+    <col min="1" max="1" width="5" customWidth="true"/>
     <col min="2" max="2" width="24.5703125" customWidth="true"/>
     <col min="3" max="3" width="10.28515625" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
-        <v>6</v>
+      <c r="B1" s="1" t="s">
+        <v>2</v>
       </c>
-      <c r="C1" s="7" t="s">
-        <v>7</v>
+      <c r="C1" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B2">
-        <v>-16.048626084889285</v>
+        <v>-15.765438256654512</v>
       </c>
       <c r="C2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3">
-        <v>-15.765438256654512</v>
-      </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4">
-        <v>-17.19533930795949</v>
-      </c>
-      <c r="C4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5">
-        <v>-17.00412810770387</v>
-      </c>
-      <c r="C5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6">
-        <v>1</v>
-      </c>
-      <c r="C6">
         <v>1</v>
       </c>
     </row>
